--- a/categorical_colors.xlsx
+++ b/categorical_colors.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ozgeyelekci/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melissa GOMIS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08795EC-A4D6-4744-ADFD-D2C1FDF68684}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="560" windowWidth="27640" windowHeight="16940" xr2:uid="{5D2234BD-5ABA-9546-8D02-68F27864E536}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
   </bookViews>
   <sheets>
     <sheet name="categorical" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>red-yellow</t>
   </si>
@@ -90,18 +89,9 @@
     <t>cmip_cat</t>
   </si>
   <si>
-    <t>ssp534os</t>
-  </si>
-  <si>
     <t>ssp585</t>
   </si>
   <si>
-    <t>ssp460</t>
-  </si>
-  <si>
-    <t>ssp434</t>
-  </si>
-  <si>
     <t>ssp3low</t>
   </si>
   <si>
@@ -157,13 +147,16 @@
   </si>
   <si>
     <t>chem_cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These are the core WGI SSPs. Please consult with WGII and WGIII for the colourus of other SSPs </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,16 +164,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00ADCF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF173C66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79420"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE71D25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF951B1E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -197,21 +227,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF951B1E"/>
+      <color rgb="FFB1724E"/>
+      <color rgb="FF2274AF"/>
+      <color rgb="FFE71D25"/>
+      <color rgb="FFF79420"/>
+      <color rgb="FF173C66"/>
+      <color rgb="FF00ADCF"/>
+      <color rgb="FF00AD66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -307,7 +385,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="825500" cy="393700"/>
@@ -332,7 +410,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="4953000" y="4686300"/>
+          <a:off x="5365315" y="4584700"/>
           <a:ext cx="825500" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -346,7 +424,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="825500" cy="787400"/>
@@ -385,7 +463,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="825500" cy="1447800"/>
@@ -424,7 +502,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>12699</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="800101" cy="1651000"/>
@@ -463,7 +541,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="812800" cy="1231900"/>
@@ -502,7 +580,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="825500" cy="838200"/>
@@ -541,7 +619,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="838200" cy="1193800"/>
@@ -580,7 +658,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="787400" cy="1016000"/>
@@ -615,50 +693,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF05A695-B241-354A-A0E7-CED9CAEB5826}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="5321300" y="2654300"/>
-          <a:ext cx="800100" cy="1841500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -958,25 +992,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71AF5EF-4492-8448-B234-37B42FF4B9B7}">
-  <dimension ref="A1:M73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="146" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="3" max="5" width="10.83203125" style="1"/>
+    <col min="3" max="5" width="10.796875" style="1"/>
+    <col min="8" max="8" width="14.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3">
         <v>127</v>
@@ -991,9 +1026,9 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1">
         <v>173</v>
@@ -1005,9 +1040,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1019,9 +1054,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -1033,9 +1068,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1">
         <v>102</v>
@@ -1047,9 +1082,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1">
         <v>229</v>
@@ -1061,12 +1096,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3">
         <v>30</v>
@@ -1081,9 +1116,9 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
         <v>69</v>
@@ -1095,9 +1130,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1">
         <v>242</v>
@@ -1109,9 +1144,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1">
         <v>232</v>
@@ -1123,9 +1158,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
         <v>128</v>
@@ -1137,696 +1172,669 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>173</v>
+      </c>
+      <c r="E14" s="3">
+        <v>207</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1">
+        <v>60</v>
+      </c>
+      <c r="E15" s="1">
+        <v>102</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1">
+        <v>247</v>
+      </c>
+      <c r="D16" s="1">
+        <v>148</v>
+      </c>
+      <c r="E16" s="1">
+        <v>32</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1">
+        <v>231</v>
+      </c>
+      <c r="D17" s="1">
+        <v>29</v>
+      </c>
+      <c r="E17" s="1">
+        <v>37</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1">
+        <v>231</v>
+      </c>
+      <c r="D18" s="1">
+        <v>29</v>
+      </c>
+      <c r="E18" s="1">
+        <v>37</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1">
+        <v>149</v>
+      </c>
+      <c r="D19" s="1">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1">
         <v>30</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="3">
-        <v>30</v>
-      </c>
-      <c r="D14" s="3">
-        <v>150</v>
-      </c>
-      <c r="E14" s="3">
-        <v>132</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="1">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1">
-        <v>51</v>
-      </c>
-      <c r="E15" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="1">
-        <v>234</v>
-      </c>
-      <c r="D16" s="1">
-        <v>221</v>
-      </c>
-      <c r="E16" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="1">
-        <v>242</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="G19" s="9"/>
+      <c r="H19" s="11"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3">
+        <v>204</v>
+      </c>
+      <c r="D21" s="3">
+        <v>35</v>
+      </c>
+      <c r="E21" s="3">
+        <v>35</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1">
+        <v>37</v>
+      </c>
+      <c r="D22" s="1">
+        <v>81</v>
+      </c>
+      <c r="E22" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1">
-        <v>242</v>
-      </c>
-      <c r="D18" s="1">
-        <v>17</v>
-      </c>
-      <c r="E18" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1">
-        <v>99</v>
-      </c>
-      <c r="D19" s="1">
-        <v>189</v>
-      </c>
-      <c r="E19" s="1">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="1">
-        <v>232</v>
-      </c>
-      <c r="D20" s="1">
-        <v>136</v>
-      </c>
-      <c r="E20" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="1">
-        <v>154</v>
-      </c>
-      <c r="D21" s="1">
-        <v>109</v>
-      </c>
-      <c r="E21" s="1">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="1">
-        <v>132</v>
-      </c>
-      <c r="D22" s="1">
-        <v>11</v>
-      </c>
-      <c r="E22" s="1">
-        <v>34</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="B24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="3">
-        <v>204</v>
-      </c>
-      <c r="D24" s="3">
-        <v>35</v>
-      </c>
-      <c r="E24" s="3">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C25" s="1">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1">
+        <v>196</v>
+      </c>
+      <c r="D26" s="1">
+        <v>121</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1">
+        <v>112</v>
+      </c>
+      <c r="D27" s="1">
+        <v>160</v>
+      </c>
+      <c r="E27" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>52</v>
+      </c>
+      <c r="E28" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3">
+        <v>127</v>
+      </c>
+      <c r="D30" s="3">
+        <v>68</v>
+      </c>
+      <c r="E30" s="3">
+        <v>170</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C31" s="1">
+        <v>48</v>
+      </c>
+      <c r="D31" s="1">
+        <v>79</v>
+      </c>
+      <c r="E31" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C32" s="1">
+        <v>54</v>
+      </c>
+      <c r="D32" s="1">
+        <v>156</v>
+      </c>
+      <c r="E32" s="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C33" s="1">
+        <v>36</v>
+      </c>
+      <c r="D33" s="1">
+        <v>147</v>
+      </c>
+      <c r="E33" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C34" s="1">
+        <v>236</v>
+      </c>
+      <c r="D34" s="1">
+        <v>209</v>
+      </c>
+      <c r="E34" s="1">
         <v>81</v>
       </c>
-      <c r="E25" s="1">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C35" s="1">
+        <v>237</v>
+      </c>
+      <c r="D35" s="1">
+        <v>128</v>
+      </c>
+      <c r="E35" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="1">
         <v>204</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="D36" s="1">
+        <v>64</v>
+      </c>
+      <c r="E36" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="3">
+        <v>221</v>
+      </c>
+      <c r="D38" s="3">
+        <v>84</v>
+      </c>
+      <c r="E38" s="3">
+        <v>46</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C39" s="1">
+        <v>33</v>
+      </c>
+      <c r="D39" s="1">
+        <v>52</v>
+      </c>
+      <c r="E39" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="1">
+        <v>53</v>
+      </c>
+      <c r="D40" s="1">
+        <v>165</v>
+      </c>
+      <c r="E40" s="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="1">
+        <v>170</v>
+      </c>
+      <c r="D41" s="1">
+        <v>24</v>
+      </c>
+      <c r="E41" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="1">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1">
+        <v>46</v>
+      </c>
+      <c r="E42" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C43" s="1">
+        <v>236</v>
+      </c>
+      <c r="D43" s="1">
+        <v>156</v>
+      </c>
+      <c r="E43" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C44" s="1">
+        <v>50</v>
+      </c>
+      <c r="D44" s="1">
+        <v>127</v>
+      </c>
+      <c r="E44" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="1">
+        <v>128</v>
+      </c>
+      <c r="D45" s="1">
+        <v>54</v>
+      </c>
+      <c r="E45" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3">
+        <v>242</v>
+      </c>
+      <c r="D47" s="3">
+        <v>83</v>
+      </c>
+      <c r="E47" s="3">
+        <v>197</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C48" s="1">
+        <v>137</v>
+      </c>
+      <c r="D48" s="1">
+        <v>88</v>
+      </c>
+      <c r="E48" s="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C49" s="1">
+        <v>247</v>
+      </c>
+      <c r="D49" s="1">
+        <v>242</v>
+      </c>
+      <c r="E49" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C50" s="1">
+        <v>78</v>
+      </c>
+      <c r="D50" s="1">
+        <v>188</v>
+      </c>
+      <c r="E50" s="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C51" s="1">
+        <v>244</v>
+      </c>
+      <c r="D51" s="1">
+        <v>127</v>
+      </c>
+      <c r="E51" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C52" s="1">
+        <v>93</v>
+      </c>
+      <c r="D52" s="1">
+        <v>237</v>
+      </c>
+      <c r="E52" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="3">
+        <v>124</v>
+      </c>
+      <c r="D54" s="3">
+        <v>130</v>
+      </c>
+      <c r="E54" s="3">
+        <v>130</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C55" s="1">
+        <v>159</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>159</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>159</v>
+      </c>
+      <c r="E57" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="3">
+        <v>51</v>
+      </c>
+      <c r="D59" s="3">
+        <v>34</v>
+      </c>
+      <c r="E59" s="3">
+        <v>136</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C60" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="D60" s="1">
+        <v>119</v>
+      </c>
+      <c r="E60" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C61" s="1">
+        <v>136</v>
+      </c>
+      <c r="D61" s="1">
+        <v>204</v>
+      </c>
+      <c r="E61" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C62" s="1">
         <v>153</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D62" s="1">
+        <v>153</v>
+      </c>
+      <c r="E62" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C63" s="1">
+        <v>68</v>
+      </c>
+      <c r="D63" s="1">
+        <v>170</v>
+      </c>
+      <c r="E63" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C64" s="1">
+        <v>102</v>
+      </c>
+      <c r="D64" s="1">
+        <v>153</v>
+      </c>
+      <c r="E64" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="C66" s="3">
         <v>196</v>
       </c>
-      <c r="D29" s="1">
-        <v>121</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="1">
-        <v>112</v>
-      </c>
-      <c r="D30" s="1">
-        <v>160</v>
-      </c>
-      <c r="E30" s="1">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>52</v>
-      </c>
-      <c r="E31" s="1">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="D66" s="3">
+        <v>42</v>
+      </c>
+      <c r="E66" s="3">
+        <v>51</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C67" s="1">
+        <v>241</v>
+      </c>
+      <c r="D67" s="1">
+        <v>197</v>
+      </c>
+      <c r="E67" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C68" s="1">
+        <v>131</v>
+      </c>
+      <c r="D68" s="1">
+        <v>60</v>
+      </c>
+      <c r="E68" s="1">
         <v>11</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="3">
-        <v>127</v>
-      </c>
-      <c r="D33" s="3">
-        <v>68</v>
-      </c>
-      <c r="E33" s="3">
-        <v>170</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C34" s="1">
-        <v>48</v>
-      </c>
-      <c r="D34" s="1">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C69" s="1">
+        <v>221</v>
+      </c>
+      <c r="D69" s="1">
         <v>79</v>
       </c>
-      <c r="E34" s="1">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C35" s="1">
-        <v>54</v>
-      </c>
-      <c r="D35" s="1">
-        <v>156</v>
-      </c>
-      <c r="E35" s="1">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C36" s="1">
-        <v>36</v>
-      </c>
-      <c r="D36" s="1">
-        <v>147</v>
-      </c>
-      <c r="E36" s="1">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C37" s="1">
-        <v>236</v>
-      </c>
-      <c r="D37" s="1">
-        <v>209</v>
-      </c>
-      <c r="E37" s="1">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C38" s="1">
-        <v>237</v>
-      </c>
-      <c r="D38" s="1">
-        <v>128</v>
-      </c>
-      <c r="E38" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C39" s="1">
-        <v>204</v>
-      </c>
-      <c r="D39" s="1">
-        <v>64</v>
-      </c>
-      <c r="E39" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="3">
-        <v>221</v>
-      </c>
-      <c r="D41" s="3">
-        <v>84</v>
-      </c>
-      <c r="E41" s="3">
-        <v>46</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C42" s="1">
-        <v>33</v>
-      </c>
-      <c r="D42" s="1">
-        <v>52</v>
-      </c>
-      <c r="E42" s="1">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C43" s="1">
-        <v>53</v>
-      </c>
-      <c r="D43" s="1">
-        <v>165</v>
-      </c>
-      <c r="E43" s="1">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C44" s="1">
-        <v>170</v>
-      </c>
-      <c r="D44" s="1">
-        <v>24</v>
-      </c>
-      <c r="E44" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C45" s="1">
-        <v>8</v>
-      </c>
-      <c r="D45" s="1">
-        <v>46</v>
-      </c>
-      <c r="E45" s="1">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C46" s="1">
-        <v>236</v>
-      </c>
-      <c r="D46" s="1">
-        <v>156</v>
-      </c>
-      <c r="E46" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C47" s="1">
-        <v>50</v>
-      </c>
-      <c r="D47" s="1">
-        <v>127</v>
-      </c>
-      <c r="E47" s="1">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C48" s="1">
-        <v>128</v>
-      </c>
-      <c r="D48" s="1">
-        <v>54</v>
-      </c>
-      <c r="E48" s="1">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="3">
-        <v>242</v>
-      </c>
-      <c r="D50" s="3">
-        <v>83</v>
-      </c>
-      <c r="E50" s="3">
-        <v>197</v>
-      </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C51" s="1">
-        <v>137</v>
-      </c>
-      <c r="D51" s="1">
-        <v>88</v>
-      </c>
-      <c r="E51" s="1">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C52" s="1">
-        <v>247</v>
-      </c>
-      <c r="D52" s="1">
-        <v>242</v>
-      </c>
-      <c r="E52" s="1">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C53" s="1">
-        <v>78</v>
-      </c>
-      <c r="D53" s="1">
-        <v>188</v>
-      </c>
-      <c r="E53" s="1">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C54" s="1">
-        <v>244</v>
-      </c>
-      <c r="D54" s="1">
-        <v>127</v>
-      </c>
-      <c r="E54" s="1">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C55" s="1">
-        <v>93</v>
-      </c>
-      <c r="D55" s="1">
-        <v>237</v>
-      </c>
-      <c r="E55" s="1">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="3">
-        <v>124</v>
-      </c>
-      <c r="D57" s="3">
-        <v>130</v>
-      </c>
-      <c r="E57" s="3">
-        <v>130</v>
-      </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C58" s="1">
-        <v>159</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C59" s="1">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1">
-        <v>159</v>
-      </c>
-      <c r="E59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C60" s="1">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1">
-        <v>159</v>
-      </c>
-      <c r="E60" s="1">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="3">
-        <v>51</v>
-      </c>
-      <c r="D62" s="3">
-        <v>34</v>
-      </c>
-      <c r="E62" s="3">
-        <v>136</v>
-      </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C63" s="1">
-        <v>17</v>
-      </c>
-      <c r="D63" s="1">
+      <c r="E69" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C70" s="1">
+        <v>245</v>
+      </c>
+      <c r="D70" s="1">
         <v>119</v>
       </c>
-      <c r="E63" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C64" s="1">
-        <v>136</v>
-      </c>
-      <c r="D64" s="1">
-        <v>204</v>
-      </c>
-      <c r="E64" s="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C65" s="1">
-        <v>153</v>
-      </c>
-      <c r="D65" s="1">
-        <v>153</v>
-      </c>
-      <c r="E65" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C66" s="1">
-        <v>68</v>
-      </c>
-      <c r="D66" s="1">
-        <v>170</v>
-      </c>
-      <c r="E66" s="1">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C67" s="1">
-        <v>102</v>
-      </c>
-      <c r="D67" s="1">
-        <v>153</v>
-      </c>
-      <c r="E67" s="1">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" s="3">
-        <v>196</v>
-      </c>
-      <c r="D69" s="3">
+      <c r="E70" s="1">
         <v>42</v>
       </c>
-      <c r="E69" s="3">
-        <v>51</v>
-      </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C70" s="1">
-        <v>241</v>
-      </c>
-      <c r="D70" s="1">
-        <v>197</v>
-      </c>
-      <c r="E70" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C71" s="1">
-        <v>131</v>
-      </c>
-      <c r="D71" s="1">
-        <v>60</v>
-      </c>
-      <c r="E71" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C72" s="1">
-        <v>221</v>
-      </c>
-      <c r="D72" s="1">
-        <v>79</v>
-      </c>
-      <c r="E72" s="1">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C73" s="1">
-        <v>245</v>
-      </c>
-      <c r="D73" s="1">
-        <v>119</v>
-      </c>
-      <c r="E73" s="1">
-        <v>42</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H14:H19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
